--- a/Study 1/results/SCIEEFF_ml_results.xlsx
+++ b/Study 1/results/SCIEEFF_ml_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">rowname</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t xml:space="preserve">p.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.upper</t>
   </si>
   <si>
     <t xml:space="preserve">r_xy1y2</t>
@@ -455,10 +461,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>0.652811747405993</v>
@@ -475,10 +487,16 @@
       <c r="F2" t="n">
         <v>0.0000000111051887917358</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.455548133391735</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.85007536142025</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>0.0277506149168988</v>
@@ -495,10 +513,16 @@
       <c r="F3" t="n">
         <v>0.27463944903421</v>
       </c>
+      <c r="G3" t="n">
+        <v>-0.0226030678004197</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0781042976342173</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0670648419657368</v>
@@ -515,10 +539,16 @@
       <c r="F4" t="n">
         <v>0.0220813035442293</v>
       </c>
+      <c r="G4" t="n">
+        <v>-0.124145631754953</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.00998405217652044</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>0.142350951187684</v>
@@ -535,10 +565,16 @@
       <c r="F5" t="n">
         <v>0.27463944903421</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.115945834381858</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.400647736757226</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>-0.29263044448521</v>
@@ -555,10 +591,16 @@
       <c r="F6" t="n">
         <v>0.0220813035442293</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.54169651842182</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.0435643705486008</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>0.130860743213308</v>
@@ -575,10 +617,16 @@
       <c r="F7" t="n">
         <v>0.27463944903421</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.106586980509125</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.368308466935741</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>-0.316250832257238</v>
@@ -595,10 +643,16 @@
       <c r="F8" t="n">
         <v>0.0220813035442293</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.585420888394294</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.0470807761201827</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>-0.019657113524419</v>
@@ -615,10 +669,16 @@
       <c r="F9" t="n">
         <v>0.451407766422138</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.071539513934685</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.032225286885847</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>0.137661093009938</v>
@@ -635,10 +695,16 @@
       <c r="F10" t="n">
         <v>0.0000000000000712015285932694</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.10942059518633</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.165901590833547</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>0.0948154568826356</v>
@@ -655,10 +721,16 @@
       <c r="F11" t="n">
         <v>0.0000000111051887917357</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.0661645636298681</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.123466350135403</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>0.459091269355648</v>
@@ -667,10 +739,12 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>0.444764980377619</v>
@@ -679,10 +753,12 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>-1.45188450845454</v>
@@ -691,10 +767,12 @@
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>0.0751583433582166</v>
@@ -711,10 +789,16 @@
       <c r="F15" t="n">
         <v>0.00604235348818812</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.0223441325578198</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.127972554158613</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>0.354416530948582</v>
@@ -731,10 +815,16 @@
       <c r="F16" t="n">
         <v>0.00604235348818811</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.105365946006206</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.603467115890957</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
         <v>0.359841649024131</v>
@@ -751,10 +841,16 @@
       <c r="F17" t="n">
         <v>0.0147319818080075</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.0732533014739278</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.646429996574334</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
         <v>0.0555012298337976</v>
@@ -771,10 +867,16 @@
       <c r="F18" t="n">
         <v>0.137319724517105</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.0452061356008395</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.156208595268435</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
         <v>0.261721486426617</v>
@@ -791,10 +893,16 @@
       <c r="F19" t="n">
         <v>0.137319724517105</v>
       </c>
+      <c r="G19" t="n">
+        <v>-0.21317396101825</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.736616933871483</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
         <v>0.284701902375368</v>
@@ -811,10 +919,16 @@
       <c r="F20" t="n">
         <v>0.137319724517105</v>
       </c>
+      <c r="G20" t="n">
+        <v>-0.231891668763716</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.801295473514452</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
         <v>0.0948154568826356</v>
@@ -831,10 +945,16 @@
       <c r="F21" t="n">
         <v>0.00000000555259439586787</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.0661645636298681</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.123466350135403</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
         <v>0.039314227048838</v>
@@ -851,10 +971,16 @@
       <c r="F22" t="n">
         <v>0.225703883211069</v>
       </c>
+      <c r="G22" t="n">
+        <v>-0.0644505737716941</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.14307902786937</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n">
         <v>0.447111575470547</v>
@@ -871,10 +997,16 @@
       <c r="F23" t="n">
         <v>0.00000000555259439586789</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.312005481569212</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.582217669371882</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
         <v>0.18539008904393</v>
@@ -891,10 +1023,16 @@
       <c r="F24" t="n">
         <v>0.225703883211069</v>
       </c>
+      <c r="G24" t="n">
+        <v>-0.303922994482984</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.674703172570844</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="n">
         <v>0.434981395672894</v>
@@ -911,10 +1049,16 @@
       <c r="F25" t="n">
         <v>0.00000000619102320665345</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.302905254330432</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.567057537015356</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
         <v>0.150279493297526</v>
@@ -930,6 +1074,12 @@
       </c>
       <c r="F26" t="n">
         <v>0.270885968406921</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.339689823164839</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.640248809759892</v>
       </c>
     </row>
   </sheetData>
